--- a/simulations/cleaned_inclusion_exclusion/Smid_2020 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Smid_2020 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -455,10 +455,10 @@
         <v>123</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -466,10 +466,10 @@
         <v>124</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>218</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>522</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>528</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D13">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>674</v>
       </c>
       <c r="C15">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="D15">
-        <v>316</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>765</v>
       </c>
       <c r="C17">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="D17">
-        <v>513</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -620,10 +620,10 @@
         <v>1002</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>1065</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>1197</v>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1205</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1259</v>
       </c>
       <c r="C29">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -730,10 +730,10 @@
         <v>1431</v>
       </c>
       <c r="C31">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -752,10 +752,10 @@
         <v>1536</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -774,10 +774,10 @@
         <v>1811</v>
       </c>
       <c r="C35">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D35">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -785,10 +785,10 @@
         <v>1822</v>
       </c>
       <c r="C36">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D36">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -818,10 +818,10 @@
         <v>1878</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -829,10 +829,10 @@
         <v>1879</v>
       </c>
       <c r="C40">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -851,10 +851,10 @@
         <v>2069</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -873,10 +873,10 @@
         <v>2072</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -895,10 +895,10 @@
         <v>2243</v>
       </c>
       <c r="C46">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="D46">
-        <v>356</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -917,10 +917,10 @@
         <v>2278</v>
       </c>
       <c r="C48">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D48">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -939,10 +939,10 @@
         <v>2281</v>
       </c>
       <c r="C50">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -961,10 +961,10 @@
         <v>2309</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -983,10 +983,10 @@
         <v>2454</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -997,7 +997,7 @@
         <v>123.8461538461538</v>
       </c>
       <c r="C55">
-        <v>130.7037037037037</v>
+        <v>111.0740740740741</v>
       </c>
     </row>
   </sheetData>
